--- a/data/pca/factorExposure/factorExposure_2016-10-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01505045366823808</v>
+        <v>0.01145680589131992</v>
       </c>
       <c r="C2">
-        <v>-0.04822786941384524</v>
+        <v>0.04157510513915268</v>
       </c>
       <c r="D2">
-        <v>0.03233144115259494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06274356278679058</v>
+      </c>
+      <c r="E2">
+        <v>0.04951233289800924</v>
+      </c>
+      <c r="F2">
+        <v>-0.08729650883488667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0558453194578742</v>
+        <v>0.03126666366929302</v>
       </c>
       <c r="C3">
-        <v>-0.09485075601887068</v>
+        <v>0.08123669953530128</v>
       </c>
       <c r="D3">
-        <v>0.05724309241908444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.1003808442803215</v>
+      </c>
+      <c r="E3">
+        <v>0.06946253295057105</v>
+      </c>
+      <c r="F3">
+        <v>-0.02812175156813679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06396523420086543</v>
+        <v>0.05434669846779549</v>
       </c>
       <c r="C4">
-        <v>-0.05878888575884833</v>
+        <v>0.06426323336199179</v>
       </c>
       <c r="D4">
-        <v>0.02314926798153956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05941906967621331</v>
+      </c>
+      <c r="E4">
+        <v>0.04577327054647637</v>
+      </c>
+      <c r="F4">
+        <v>-0.07971919698063744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02908724558080337</v>
+        <v>0.03250931624777398</v>
       </c>
       <c r="C6">
-        <v>-0.04250584991248878</v>
+        <v>0.03710371350221836</v>
       </c>
       <c r="D6">
-        <v>0.02841353016516247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06621179503657336</v>
+      </c>
+      <c r="E6">
+        <v>0.05779554859568822</v>
+      </c>
+      <c r="F6">
+        <v>-0.06977477612307602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02457132251994088</v>
+        <v>0.01974785115096262</v>
       </c>
       <c r="C7">
-        <v>-0.03795416702943281</v>
+        <v>0.03583853118548778</v>
       </c>
       <c r="D7">
-        <v>-0.002291646043474729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03918033926864666</v>
+      </c>
+      <c r="E7">
+        <v>0.03200904152770503</v>
+      </c>
+      <c r="F7">
+        <v>-0.1118182533119836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.001728010520070335</v>
+        <v>0.002875327719687666</v>
       </c>
       <c r="C8">
-        <v>-0.01059504633046437</v>
+        <v>0.02410605683401593</v>
       </c>
       <c r="D8">
-        <v>0.01570271729742137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03625351936467416</v>
+      </c>
+      <c r="E8">
+        <v>0.03730538785792902</v>
+      </c>
+      <c r="F8">
+        <v>-0.05500469803133561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02901373032590189</v>
+        <v>0.03386293939843866</v>
       </c>
       <c r="C9">
-        <v>-0.04259762005368172</v>
+        <v>0.05009517867279624</v>
       </c>
       <c r="D9">
-        <v>0.01867046049989627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0445659952647073</v>
+      </c>
+      <c r="E9">
+        <v>0.03739390121925606</v>
+      </c>
+      <c r="F9">
+        <v>-0.08799427882087071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07547800235600598</v>
+        <v>0.1051210887866701</v>
       </c>
       <c r="C10">
-        <v>0.1947418101659459</v>
+        <v>-0.1866806706514461</v>
       </c>
       <c r="D10">
-        <v>0.009830842681190685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0009321532663262201</v>
+      </c>
+      <c r="E10">
+        <v>0.04392404501579089</v>
+      </c>
+      <c r="F10">
+        <v>-0.03994294507976777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04086441334294644</v>
+        <v>0.03404241842760918</v>
       </c>
       <c r="C11">
-        <v>-0.05352349203987895</v>
+        <v>0.05169792754972709</v>
       </c>
       <c r="D11">
-        <v>0.0004044662994757947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03306564360027759</v>
+      </c>
+      <c r="E11">
+        <v>0.004373638381971697</v>
+      </c>
+      <c r="F11">
+        <v>-0.06564343888733662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03556582247231613</v>
+        <v>0.03484186610505403</v>
       </c>
       <c r="C12">
-        <v>-0.04320937907639799</v>
+        <v>0.04643580630328625</v>
       </c>
       <c r="D12">
-        <v>0.002357391698010738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02571293854594156</v>
+      </c>
+      <c r="E12">
+        <v>0.01323999175219159</v>
+      </c>
+      <c r="F12">
+        <v>-0.06686580227254485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01127955030748795</v>
+        <v>0.0103173888258041</v>
       </c>
       <c r="C13">
-        <v>-0.04317297274545999</v>
+        <v>0.04110679572485076</v>
       </c>
       <c r="D13">
-        <v>0.02284054366120151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06609951100579009</v>
+      </c>
+      <c r="E13">
+        <v>0.06387637829046047</v>
+      </c>
+      <c r="F13">
+        <v>-0.1173639554094486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.008496462698032392</v>
+        <v>0.004582728987943313</v>
       </c>
       <c r="C14">
-        <v>-0.03136669225277262</v>
+        <v>0.0286786276485478</v>
       </c>
       <c r="D14">
-        <v>-0.01312277379832593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03022384645535259</v>
+      </c>
+      <c r="E14">
+        <v>0.02472325029089521</v>
+      </c>
+      <c r="F14">
+        <v>-0.0980523931817678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001650911435888225</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00181736027863008</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001725115014324318</v>
+      </c>
+      <c r="E15">
+        <v>0.0001728801557476364</v>
+      </c>
+      <c r="F15">
+        <v>-0.000987626329712561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0354146275100938</v>
+        <v>0.03197395788936244</v>
       </c>
       <c r="C16">
-        <v>-0.03821489242532146</v>
+        <v>0.0443981756292803</v>
       </c>
       <c r="D16">
-        <v>0.006879401367464021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02843293904068053</v>
+      </c>
+      <c r="E16">
+        <v>0.01837204268628203</v>
+      </c>
+      <c r="F16">
+        <v>-0.06950124690827748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02742150598113138</v>
+        <v>0.0152644297311065</v>
       </c>
       <c r="C19">
-        <v>-0.05788124559603904</v>
+        <v>0.04987480824890313</v>
       </c>
       <c r="D19">
-        <v>0.07176420353326349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1045994410912411</v>
+      </c>
+      <c r="E19">
+        <v>0.08042648961422655</v>
+      </c>
+      <c r="F19">
+        <v>-0.1036089210167438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01499668294476361</v>
+        <v>0.0122386550122568</v>
       </c>
       <c r="C20">
-        <v>-0.04338247443834276</v>
+        <v>0.03939439306343064</v>
       </c>
       <c r="D20">
-        <v>0.01983716939882514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04226639185881863</v>
+      </c>
+      <c r="E20">
+        <v>0.05471512094096947</v>
+      </c>
+      <c r="F20">
+        <v>-0.09155804390817149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01087695785660852</v>
+        <v>0.004838255411555986</v>
       </c>
       <c r="C21">
-        <v>-0.04754477195574432</v>
+        <v>0.04164402300912549</v>
       </c>
       <c r="D21">
-        <v>0.0413083038869747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07216242079847647</v>
+      </c>
+      <c r="E21">
+        <v>0.06564361335647564</v>
+      </c>
+      <c r="F21">
+        <v>-0.1329325102717243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001587207779142749</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0220044484222507</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03158382872535957</v>
+      </c>
+      <c r="E22">
+        <v>0.01447308434709309</v>
+      </c>
+      <c r="F22">
+        <v>-0.01135143281525669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001538263404325511</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02213416310940651</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03126773435392013</v>
+      </c>
+      <c r="E23">
+        <v>0.01475594446389776</v>
+      </c>
+      <c r="F23">
+        <v>-0.0111579159801482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0298138051140325</v>
+        <v>0.03004638162126394</v>
       </c>
       <c r="C24">
-        <v>-0.04510958497988796</v>
+        <v>0.05201190046305641</v>
       </c>
       <c r="D24">
-        <v>0.002733487645253615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02646074849905107</v>
+      </c>
+      <c r="E24">
+        <v>0.01463430193371654</v>
+      </c>
+      <c r="F24">
+        <v>-0.07632194137044968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04674782613085447</v>
+        <v>0.04065524347922034</v>
       </c>
       <c r="C25">
-        <v>-0.0557972698270293</v>
+        <v>0.05798059003318851</v>
       </c>
       <c r="D25">
-        <v>-0.009293277804934606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02386298771284093</v>
+      </c>
+      <c r="E25">
+        <v>0.01122441304443933</v>
+      </c>
+      <c r="F25">
+        <v>-0.07857537249099072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01035066444060923</v>
+        <v>0.01270222895244773</v>
       </c>
       <c r="C26">
-        <v>-0.01576087916041355</v>
+        <v>0.01525252718119811</v>
       </c>
       <c r="D26">
-        <v>0.01045987440478072</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02612960082334048</v>
+      </c>
+      <c r="E26">
+        <v>0.02630402605987812</v>
+      </c>
+      <c r="F26">
+        <v>-0.07564313195526129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.0874976707358615</v>
+        <v>0.1397652199224666</v>
       </c>
       <c r="C28">
-        <v>0.2204745333308312</v>
+        <v>-0.2367084411727857</v>
       </c>
       <c r="D28">
-        <v>0.002536333610050606</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01622996580394911</v>
+      </c>
+      <c r="E28">
+        <v>0.04337284178723791</v>
+      </c>
+      <c r="F28">
+        <v>-0.05260515592895367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01296153967026256</v>
+        <v>0.005803387559011379</v>
       </c>
       <c r="C29">
-        <v>-0.02489109972072506</v>
+        <v>0.02561699883874921</v>
       </c>
       <c r="D29">
-        <v>-0.01170897005422932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02182470418673373</v>
+      </c>
+      <c r="E29">
+        <v>0.02782001462662539</v>
+      </c>
+      <c r="F29">
+        <v>-0.08850472385099892</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05259936442227885</v>
+        <v>0.0378680767920329</v>
       </c>
       <c r="C30">
-        <v>-0.06398845163378096</v>
+        <v>0.06214212521933259</v>
       </c>
       <c r="D30">
-        <v>0.04621973850288952</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1077475475004468</v>
+      </c>
+      <c r="E30">
+        <v>0.03351166934653203</v>
+      </c>
+      <c r="F30">
+        <v>-0.100534578520997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0427717827623181</v>
+        <v>0.05199042952071408</v>
       </c>
       <c r="C31">
-        <v>-0.03110841542269911</v>
+        <v>0.0505774954673073</v>
       </c>
       <c r="D31">
-        <v>-0.01402034908231031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00352632157595324</v>
+      </c>
+      <c r="E31">
+        <v>0.04297423216123498</v>
+      </c>
+      <c r="F31">
+        <v>-0.08272435743362176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.001748942219357601</v>
+        <v>0.002789120109365896</v>
       </c>
       <c r="C32">
-        <v>-0.04719866360025913</v>
+        <v>0.02949779479710781</v>
       </c>
       <c r="D32">
-        <v>0.02548399158832217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05016269735259864</v>
+      </c>
+      <c r="E32">
+        <v>0.02049136523120838</v>
+      </c>
+      <c r="F32">
+        <v>-0.07155562675654153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02725189569161053</v>
+        <v>0.02272235530911338</v>
       </c>
       <c r="C33">
-        <v>-0.059763617310322</v>
+        <v>0.05283240924247307</v>
       </c>
       <c r="D33">
-        <v>0.0266858451395148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08184415908686503</v>
+      </c>
+      <c r="E33">
+        <v>0.04751170435777376</v>
+      </c>
+      <c r="F33">
+        <v>-0.1296909724898376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05017971236790596</v>
+        <v>0.03950425954230974</v>
       </c>
       <c r="C34">
-        <v>-0.0537592910469944</v>
+        <v>0.06341809363543409</v>
       </c>
       <c r="D34">
-        <v>-0.007778271557769975</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03347166014640077</v>
+      </c>
+      <c r="E34">
+        <v>-0.006163791814981808</v>
+      </c>
+      <c r="F34">
+        <v>-0.07468606580525725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.009039975897512618</v>
+        <v>0.01334528837187135</v>
       </c>
       <c r="C36">
-        <v>-0.01166056122610666</v>
+        <v>0.01107840735650552</v>
       </c>
       <c r="D36">
-        <v>0.006730379691415518</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0281950200361706</v>
+      </c>
+      <c r="E36">
+        <v>0.03318942970360523</v>
+      </c>
+      <c r="F36">
+        <v>-0.08375896067210196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03281627232922711</v>
+        <v>0.025232562284958</v>
       </c>
       <c r="C38">
-        <v>-0.02409049091141609</v>
+        <v>0.02424682226132895</v>
       </c>
       <c r="D38">
-        <v>0.0002524752154861001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02812064672337084</v>
+      </c>
+      <c r="E38">
+        <v>0.03454918369807271</v>
+      </c>
+      <c r="F38">
+        <v>-0.07022903650525129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04214399380811867</v>
+        <v>0.03546929837530267</v>
       </c>
       <c r="C39">
-        <v>-0.06920114925779769</v>
+        <v>0.06729656183586563</v>
       </c>
       <c r="D39">
-        <v>0.02603527081218484</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05145619736461877</v>
+      </c>
+      <c r="E39">
+        <v>0.01626256679273005</v>
+      </c>
+      <c r="F39">
+        <v>-0.09110353923830761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01964733915491354</v>
+        <v>0.01521129017337864</v>
       </c>
       <c r="C40">
-        <v>-0.02780529865229736</v>
+        <v>0.03704405091099509</v>
       </c>
       <c r="D40">
-        <v>0.03645930382545948</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04054230894454217</v>
+      </c>
+      <c r="E40">
+        <v>0.07049185647556516</v>
+      </c>
+      <c r="F40">
+        <v>-0.09171973687594273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01098320865420822</v>
+        <v>0.01802790311148528</v>
       </c>
       <c r="C41">
-        <v>-0.002780174285522437</v>
+        <v>0.004263824957790764</v>
       </c>
       <c r="D41">
-        <v>0.001056509853379059</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01806304434259041</v>
+      </c>
+      <c r="E41">
+        <v>0.03465552505693025</v>
+      </c>
+      <c r="F41">
+        <v>-0.07314293021007676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.0008344576697048111</v>
+        <v>0.0003685026339587216</v>
       </c>
       <c r="C42">
-        <v>-0.01739149846718112</v>
+        <v>0.009144399349577824</v>
       </c>
       <c r="D42">
-        <v>0.003178602961018805</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.002954008654572357</v>
+      </c>
+      <c r="E42">
+        <v>0.002454096148050311</v>
+      </c>
+      <c r="F42">
+        <v>0.01543460482275879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03239906205169624</v>
+        <v>0.02923261284689079</v>
       </c>
       <c r="C43">
-        <v>-0.01669548362157216</v>
+        <v>0.01930580715055144</v>
       </c>
       <c r="D43">
-        <v>0.008364751155245858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04319339670268996</v>
+      </c>
+      <c r="E43">
+        <v>0.03916996228776313</v>
+      </c>
+      <c r="F43">
+        <v>-0.08723703555259836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0219306169396627</v>
+        <v>0.0140465080704393</v>
       </c>
       <c r="C44">
-        <v>-0.05385497565700482</v>
+        <v>0.04986353033355597</v>
       </c>
       <c r="D44">
-        <v>0.01823699193612617</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04282613914696998</v>
+      </c>
+      <c r="E44">
+        <v>0.05695814810543431</v>
+      </c>
+      <c r="F44">
+        <v>-0.09540952114509299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.001933564060589862</v>
+        <v>0.006598514511763031</v>
       </c>
       <c r="C46">
-        <v>-0.01910811756409186</v>
+        <v>0.02311077500573252</v>
       </c>
       <c r="D46">
-        <v>-0.01192159933037175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01522036779619232</v>
+      </c>
+      <c r="E46">
+        <v>0.03144036789767784</v>
+      </c>
+      <c r="F46">
+        <v>-0.10301091443893</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07762079140413602</v>
+        <v>0.0836146094038331</v>
       </c>
       <c r="C47">
-        <v>-0.07238467534398524</v>
+        <v>0.07837230920536953</v>
       </c>
       <c r="D47">
-        <v>-0.01123068102734415</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01140903181911641</v>
+      </c>
+      <c r="E47">
+        <v>0.05000777304851181</v>
+      </c>
+      <c r="F47">
+        <v>-0.08119934008635553</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01948903496718625</v>
+        <v>0.01497896279680242</v>
       </c>
       <c r="C48">
-        <v>-0.01032065457793232</v>
+        <v>0.01572824890316359</v>
       </c>
       <c r="D48">
-        <v>0.001388507098807208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01827727534948426</v>
+      </c>
+      <c r="E48">
+        <v>0.04255479663159529</v>
+      </c>
+      <c r="F48">
+        <v>-0.09656858421284593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0885398285607311</v>
+        <v>0.07020417136078953</v>
       </c>
       <c r="C50">
-        <v>-0.06648725956189476</v>
+        <v>0.06911938490207761</v>
       </c>
       <c r="D50">
-        <v>-0.01567765893681795</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0007861212134045301</v>
+      </c>
+      <c r="E50">
+        <v>0.04761504670093608</v>
+      </c>
+      <c r="F50">
+        <v>-0.06861637528997419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01196982937730679</v>
+        <v>0.009098577933632149</v>
       </c>
       <c r="C51">
-        <v>-0.04634939638781796</v>
+        <v>0.03253950404644768</v>
       </c>
       <c r="D51">
-        <v>0.007888384182178654</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04884478143235863</v>
+      </c>
+      <c r="E51">
+        <v>0.01865754796966507</v>
+      </c>
+      <c r="F51">
+        <v>-0.08774273946479309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09306553224516886</v>
+        <v>0.0891751850870601</v>
       </c>
       <c r="C53">
-        <v>-0.07544327406239729</v>
+        <v>0.09023770721834815</v>
       </c>
       <c r="D53">
-        <v>-0.03811251431364798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03904901406160055</v>
+      </c>
+      <c r="E53">
+        <v>0.05061635145897412</v>
+      </c>
+      <c r="F53">
+        <v>-0.08915257574829286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03014398356460258</v>
+        <v>0.02789771697962816</v>
       </c>
       <c r="C54">
-        <v>-0.01554404136074846</v>
+        <v>0.02587203656225395</v>
       </c>
       <c r="D54">
-        <v>0.008101249845037141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03541025874266778</v>
+      </c>
+      <c r="E54">
+        <v>0.03700460766203646</v>
+      </c>
+      <c r="F54">
+        <v>-0.1000423603251366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0736355703414532</v>
+        <v>0.08078634033893149</v>
       </c>
       <c r="C55">
-        <v>-0.06940341624477508</v>
+        <v>0.07436643472724977</v>
       </c>
       <c r="D55">
-        <v>-0.03879975500339655</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04625692034420421</v>
+      </c>
+      <c r="E55">
+        <v>0.04231661109761228</v>
+      </c>
+      <c r="F55">
+        <v>-0.06445452020036761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1501822227672973</v>
+        <v>0.1427954576393975</v>
       </c>
       <c r="C56">
-        <v>-0.09408889437597329</v>
+        <v>0.1076939963049602</v>
       </c>
       <c r="D56">
-        <v>-0.04086984381751512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04818645140019925</v>
+      </c>
+      <c r="E56">
+        <v>0.04788175870276818</v>
+      </c>
+      <c r="F56">
+        <v>-0.05514815976273301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.004061207876362742</v>
+        <v>0.001622917283980025</v>
       </c>
       <c r="C57">
-        <v>-0.003309902709027886</v>
+        <v>0.001903881230950406</v>
       </c>
       <c r="D57">
-        <v>0.01796031777796385</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01545691304943013</v>
+      </c>
+      <c r="E57">
+        <v>0.008595730970410434</v>
+      </c>
+      <c r="F57">
+        <v>-0.01367294577558987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07745490508975846</v>
+        <v>0.02958663938793383</v>
       </c>
       <c r="C58">
-        <v>-0.0362966411532129</v>
+        <v>0.03297283380021117</v>
       </c>
       <c r="D58">
-        <v>0.9493984491258994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5037438240660372</v>
+      </c>
+      <c r="E58">
+        <v>0.6873920471092516</v>
+      </c>
+      <c r="F58">
+        <v>0.4336488078957575</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1328486380376107</v>
+        <v>0.1522578498620309</v>
       </c>
       <c r="C59">
-        <v>0.2060892484123317</v>
+        <v>-0.1848497012492135</v>
       </c>
       <c r="D59">
-        <v>0.02198444884055331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02967099554645117</v>
+      </c>
+      <c r="E59">
+        <v>0.02338435179269542</v>
+      </c>
+      <c r="F59">
+        <v>-0.02236711743980151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3165968329212747</v>
+        <v>0.279393471881329</v>
       </c>
       <c r="C60">
-        <v>-0.07926348245935065</v>
+        <v>0.107180573888938</v>
       </c>
       <c r="D60">
-        <v>-0.001409491105852224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2060127569374524</v>
+      </c>
+      <c r="E60">
+        <v>-0.2772820564804744</v>
+      </c>
+      <c r="F60">
+        <v>0.1263067400023056</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03758313843148493</v>
+        <v>0.03805279919188435</v>
       </c>
       <c r="C61">
-        <v>-0.06057519032905534</v>
+        <v>0.06110014687720153</v>
       </c>
       <c r="D61">
-        <v>0.01522423378492875</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04681353692717263</v>
+      </c>
+      <c r="E61">
+        <v>0.0218087320706347</v>
+      </c>
+      <c r="F61">
+        <v>-0.08216718910458606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01381413428824517</v>
+        <v>0.01417713762425092</v>
       </c>
       <c r="C63">
-        <v>-0.03660178620517673</v>
+        <v>0.03106727310536433</v>
       </c>
       <c r="D63">
-        <v>-0.003985595041268842</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02194051286265207</v>
+      </c>
+      <c r="E63">
+        <v>0.03629706979762282</v>
+      </c>
+      <c r="F63">
+        <v>-0.07611992094393456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0499092817449923</v>
+        <v>0.05291598913164355</v>
       </c>
       <c r="C64">
-        <v>-0.02968028670007301</v>
+        <v>0.0535707066134368</v>
       </c>
       <c r="D64">
-        <v>-0.004442698124855293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01259757181149902</v>
+      </c>
+      <c r="E64">
+        <v>0.01813821806343432</v>
+      </c>
+      <c r="F64">
+        <v>-0.08814721000858398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09463080158988633</v>
+        <v>0.06601051404954453</v>
       </c>
       <c r="C65">
-        <v>-0.04622151501771731</v>
+        <v>0.04345632921677081</v>
       </c>
       <c r="D65">
-        <v>0.03258862423509871</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08211755227978901</v>
+      </c>
+      <c r="E65">
+        <v>0.03498413237957912</v>
+      </c>
+      <c r="F65">
+        <v>-0.02552089687922242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06593684059753441</v>
+        <v>0.04784971187824843</v>
       </c>
       <c r="C66">
-        <v>-0.1052983744460381</v>
+        <v>0.09139914450699105</v>
       </c>
       <c r="D66">
-        <v>0.03186296015292421</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07807254968862795</v>
+      </c>
+      <c r="E66">
+        <v>0.01948996652367507</v>
+      </c>
+      <c r="F66">
+        <v>-0.09224365352692439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0567460355992177</v>
+        <v>0.04776009018808631</v>
       </c>
       <c r="C67">
-        <v>-0.0294794279437522</v>
+        <v>0.03087512608279809</v>
       </c>
       <c r="D67">
-        <v>-0.009451044757820066</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01566773858102389</v>
+      </c>
+      <c r="E67">
+        <v>0.01947026035700186</v>
+      </c>
+      <c r="F67">
+        <v>-0.05655641130863918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1150588821502153</v>
+        <v>0.1599435319145215</v>
       </c>
       <c r="C68">
-        <v>0.2868188985431815</v>
+        <v>-0.2506421239127644</v>
       </c>
       <c r="D68">
-        <v>-0.0004024822538752379</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01906038789750936</v>
+      </c>
+      <c r="E68">
+        <v>0.0385582539960844</v>
+      </c>
+      <c r="F68">
+        <v>-0.01739305938048588</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08687532293793994</v>
+        <v>0.08384183522740267</v>
       </c>
       <c r="C69">
-        <v>-0.06693147924160744</v>
+        <v>0.08429282542158775</v>
       </c>
       <c r="D69">
-        <v>-0.03668322560394147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008109726341805873</v>
+      </c>
+      <c r="E69">
+        <v>0.02366858906391135</v>
+      </c>
+      <c r="F69">
+        <v>-0.09515525697428638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1222917496598388</v>
+        <v>0.1503736483290852</v>
       </c>
       <c r="C71">
-        <v>0.2472350284723816</v>
+        <v>-0.2286343379014027</v>
       </c>
       <c r="D71">
-        <v>0.01841736811434616</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01449563717157847</v>
+      </c>
+      <c r="E71">
+        <v>0.05583092553829441</v>
+      </c>
+      <c r="F71">
+        <v>-0.05818439207366138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08363788453516065</v>
+        <v>0.09389158642908274</v>
       </c>
       <c r="C72">
-        <v>-0.04762870478334953</v>
+        <v>0.05821053367893195</v>
       </c>
       <c r="D72">
-        <v>-0.01838226179618689</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01799532096606612</v>
+      </c>
+      <c r="E72">
+        <v>0.008752445499452676</v>
+      </c>
+      <c r="F72">
+        <v>-0.0795302792943849</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4385929496347971</v>
+        <v>0.3455049783149827</v>
       </c>
       <c r="C73">
-        <v>-0.05580248018696687</v>
+        <v>0.08960880605079086</v>
       </c>
       <c r="D73">
-        <v>0.06050317368814331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4246983433100974</v>
+      </c>
+      <c r="E73">
+        <v>-0.4839757866971708</v>
+      </c>
+      <c r="F73">
+        <v>0.3023794898416398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1201796755445502</v>
+        <v>0.1101834689685904</v>
       </c>
       <c r="C74">
-        <v>-0.1159421698161707</v>
+        <v>0.1044701949158594</v>
       </c>
       <c r="D74">
-        <v>-0.01766960518965298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02605888929927727</v>
+      </c>
+      <c r="E74">
+        <v>0.06707749763881139</v>
+      </c>
+      <c r="F74">
+        <v>-0.06342771175799448</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2589370434496178</v>
+        <v>0.2529878419852318</v>
       </c>
       <c r="C75">
-        <v>-0.1317647049445193</v>
+        <v>0.1498754026050933</v>
       </c>
       <c r="D75">
-        <v>-0.07577204081140357</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1272618421264288</v>
+      </c>
+      <c r="E75">
+        <v>0.08138337367779226</v>
+      </c>
+      <c r="F75">
+        <v>-0.02617520994817422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1195455133251426</v>
+        <v>0.1254628225883002</v>
       </c>
       <c r="C76">
-        <v>-0.1066274466356492</v>
+        <v>0.1096186880800961</v>
       </c>
       <c r="D76">
-        <v>-0.05054456751772671</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05987480691678672</v>
+      </c>
+      <c r="E76">
+        <v>0.06929077133091639</v>
+      </c>
+      <c r="F76">
+        <v>-0.06970484595389713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07607279456982066</v>
+        <v>0.05943143732063563</v>
       </c>
       <c r="C77">
-        <v>-0.05851531857150251</v>
+        <v>0.06794470779045754</v>
       </c>
       <c r="D77">
-        <v>0.04721206898404157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06671109945422843</v>
+      </c>
+      <c r="E77">
+        <v>0.06217598770287124</v>
+      </c>
+      <c r="F77">
+        <v>-0.1204262398568576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04448221108953881</v>
+        <v>0.03828741546991615</v>
       </c>
       <c r="C78">
-        <v>-0.04309163662375017</v>
+        <v>0.05431949900802471</v>
       </c>
       <c r="D78">
-        <v>0.01730476256302887</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07287862556690983</v>
+      </c>
+      <c r="E78">
+        <v>0.01419399815475288</v>
+      </c>
+      <c r="F78">
+        <v>-0.09637807493730939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01661707429584379</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03322164561548113</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05412232394717231</v>
+      </c>
+      <c r="E79">
+        <v>0.03843056748329653</v>
+      </c>
+      <c r="F79">
+        <v>-0.03010849417657247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0473547037860499</v>
+        <v>0.03292662790171283</v>
       </c>
       <c r="C80">
-        <v>-0.05106954622119109</v>
+        <v>0.05182398889422044</v>
       </c>
       <c r="D80">
-        <v>0.0352559129593541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04788200228027392</v>
+      </c>
+      <c r="E80">
+        <v>0.01039351353859455</v>
+      </c>
+      <c r="F80">
+        <v>-0.03295313243080435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1401854598072732</v>
+        <v>0.1379287303124424</v>
       </c>
       <c r="C81">
-        <v>-0.08186152778986569</v>
+        <v>0.1009113843020711</v>
       </c>
       <c r="D81">
-        <v>-0.03506662264453535</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09165442251861786</v>
+      </c>
+      <c r="E81">
+        <v>0.08138483497983479</v>
+      </c>
+      <c r="F81">
+        <v>-0.03072263664234089</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0714515725976681</v>
+        <v>0.189156064610341</v>
       </c>
       <c r="C82">
-        <v>-0.04696272890789292</v>
+        <v>0.1439401078731312</v>
       </c>
       <c r="D82">
-        <v>-0.02878177959335371</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2242824870766085</v>
+      </c>
+      <c r="E82">
+        <v>0.01484573321576696</v>
+      </c>
+      <c r="F82">
+        <v>-0.0834239949877902</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02640881884758071</v>
+        <v>0.02596441105425194</v>
       </c>
       <c r="C83">
-        <v>-0.0207846791230666</v>
+        <v>0.03754964780165963</v>
       </c>
       <c r="D83">
-        <v>0.01616133175993951</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03391190723889875</v>
+      </c>
+      <c r="E83">
+        <v>0.00666561048649407</v>
+      </c>
+      <c r="F83">
+        <v>-0.0530681630325008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2389020895166888</v>
+        <v>0.2026421232243903</v>
       </c>
       <c r="C85">
-        <v>-0.1168563484338006</v>
+        <v>0.1322776826037878</v>
       </c>
       <c r="D85">
-        <v>-0.141367661700834</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1053707340894568</v>
+      </c>
+      <c r="E85">
+        <v>0.005316185957330345</v>
+      </c>
+      <c r="F85">
+        <v>0.01682863818961446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.008400078078686713</v>
+        <v>0.01167972901750536</v>
       </c>
       <c r="C86">
-        <v>-0.02036040946419313</v>
+        <v>0.02848727599031704</v>
       </c>
       <c r="D86">
-        <v>0.03613317177786806</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07819185575984373</v>
+      </c>
+      <c r="E86">
+        <v>0.04327620606987374</v>
+      </c>
+      <c r="F86">
+        <v>-0.1472117371221607</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01535537110365476</v>
+        <v>0.01814825425927109</v>
       </c>
       <c r="C87">
-        <v>-0.023274186591031</v>
+        <v>0.019392716556853</v>
       </c>
       <c r="D87">
-        <v>0.07670303797159811</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09062767899988627</v>
+      </c>
+      <c r="E87">
+        <v>0.07954221133926609</v>
+      </c>
+      <c r="F87">
+        <v>-0.0932711256413053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.10426127323574</v>
+        <v>0.08709834404965389</v>
       </c>
       <c r="C88">
-        <v>-0.07060647463920593</v>
+        <v>0.06493177241174357</v>
       </c>
       <c r="D88">
-        <v>-0.01309384096413209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01306793020644047</v>
+      </c>
+      <c r="E88">
+        <v>0.02828255940817156</v>
+      </c>
+      <c r="F88">
+        <v>-0.07177589406592444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.18681872219327</v>
+        <v>0.2332612796884129</v>
       </c>
       <c r="C89">
-        <v>0.3766397498584501</v>
+        <v>-0.3756606991089121</v>
       </c>
       <c r="D89">
-        <v>-0.03332972905701027</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02004954574421696</v>
+      </c>
+      <c r="E89">
+        <v>0.03234118130108047</v>
+      </c>
+      <c r="F89">
+        <v>-0.0971312133548014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1734647217773187</v>
+        <v>0.2120234718534885</v>
       </c>
       <c r="C90">
-        <v>0.3487497440154176</v>
+        <v>-0.3139070811318737</v>
       </c>
       <c r="D90">
-        <v>0.005539821326484499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01429546576069153</v>
+      </c>
+      <c r="E90">
+        <v>0.06083972059511866</v>
+      </c>
+      <c r="F90">
+        <v>-0.05057591349799278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2017399622884382</v>
+        <v>0.187003209800176</v>
       </c>
       <c r="C91">
-        <v>-0.1164644776965165</v>
+        <v>0.1446090514255138</v>
       </c>
       <c r="D91">
-        <v>-0.06374130949773754</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1013474660626953</v>
+      </c>
+      <c r="E91">
+        <v>0.0738588488472534</v>
+      </c>
+      <c r="F91">
+        <v>-0.04864590810692949</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1670458261197835</v>
+        <v>0.1914318624134961</v>
       </c>
       <c r="C92">
-        <v>0.2835085437652285</v>
+        <v>-0.2711205755820383</v>
       </c>
       <c r="D92">
-        <v>-0.0140331433481623</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.007856730538874581</v>
+      </c>
+      <c r="E92">
+        <v>0.06866826462089709</v>
+      </c>
+      <c r="F92">
+        <v>-0.07250871701504601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1962401848746919</v>
+        <v>0.236503321551826</v>
       </c>
       <c r="C93">
-        <v>0.3445996204915108</v>
+        <v>-0.3150641463955365</v>
       </c>
       <c r="D93">
-        <v>0.01046378802078374</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001495077964267201</v>
+      </c>
+      <c r="E93">
+        <v>0.04792299223668495</v>
+      </c>
+      <c r="F93">
+        <v>-0.0424442251887023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2926232806484609</v>
+        <v>0.3364792790305171</v>
       </c>
       <c r="C94">
-        <v>-0.1575688046904898</v>
+        <v>0.2055406865569972</v>
       </c>
       <c r="D94">
-        <v>-0.1027580858825286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4671905062342886</v>
+      </c>
+      <c r="E94">
+        <v>0.1746070359081892</v>
+      </c>
+      <c r="F94">
+        <v>0.4365226580815419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09766052865410352</v>
+        <v>0.08101953665688598</v>
       </c>
       <c r="C95">
-        <v>-0.07265991052352815</v>
+        <v>0.07449889179505541</v>
       </c>
       <c r="D95">
-        <v>0.04208589080833201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1515712570803832</v>
+      </c>
+      <c r="E95">
+        <v>-0.1400304514738387</v>
+      </c>
+      <c r="F95">
+        <v>-0.2016450812964393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2057175856341239</v>
+        <v>0.1881646350667147</v>
       </c>
       <c r="C98">
-        <v>-0.01629765328613684</v>
+        <v>0.04441088930465349</v>
       </c>
       <c r="D98">
-        <v>0.03280509042175924</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1730892589398252</v>
+      </c>
+      <c r="E98">
+        <v>-0.1548105785477359</v>
+      </c>
+      <c r="F98">
+        <v>0.04425824360235102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01266331313673789</v>
+        <v>0.005685602245006754</v>
       </c>
       <c r="C101">
-        <v>-0.02500709499558083</v>
+        <v>0.02536058491201921</v>
       </c>
       <c r="D101">
-        <v>-0.01185567122067445</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02118265570580619</v>
+      </c>
+      <c r="E101">
+        <v>0.02833399916561982</v>
+      </c>
+      <c r="F101">
+        <v>-0.08806184507837979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1202070978425129</v>
+        <v>0.1198299626890047</v>
       </c>
       <c r="C102">
-        <v>-0.07792504628762473</v>
+        <v>0.1032822278195668</v>
       </c>
       <c r="D102">
-        <v>-0.04914662256647453</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05039053751083265</v>
+      </c>
+      <c r="E102">
+        <v>-0.01188485436140629</v>
+      </c>
+      <c r="F102">
+        <v>-0.03907689266181892</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
